--- a/bunnygangsta/evidence.xlsx
+++ b/bunnygangsta/evidence.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PRehberD\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/778f0630af30ae08/Masaüstü/nodes/cosmos/GOn/bunny/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{66A870FC-4D27-45C0-B446-9FE26039AEEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{66A870FC-4D27-45C0-B446-9FE26039AEEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E21439F6-D245-4686-A807-BC8111FF6C5D}"/>
   <bookViews>
-    <workbookView xWindow="34905" yWindow="870" windowWidth="21600" windowHeight="11040" tabRatio="787" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" tabRatio="787" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="40">
   <si>
     <t>TxHash</t>
   </si>
@@ -79,24 +79,6 @@
     <t>nft id</t>
   </si>
   <si>
-    <t>tx hash on dest chain</t>
-  </si>
-  <si>
-    <t>dest chain id</t>
-  </si>
-  <si>
-    <t>tx hash on irisnet</t>
-  </si>
-  <si>
-    <t>ibc class on dest chain</t>
-  </si>
-  <si>
-    <t>class id you issued</t>
-  </si>
-  <si>
-    <t>nft id you minted</t>
-  </si>
-  <si>
     <t>TeamName</t>
   </si>
   <si>
@@ -140,6 +122,48 @@
   </si>
   <si>
     <t>omniflix14twcjxxafcw7x0q4vk4l6aj03mz7pvep2av8mz</t>
+  </si>
+  <si>
+    <t>EC6BEBEBB38E71C5135A8A8F3655784A3BDD72DE1D54D1F16411424B69E6FF36</t>
+  </si>
+  <si>
+    <t>bunny</t>
+  </si>
+  <si>
+    <t>F86864E0B37CBA662EFF96F78DD8871044190D59D738070336FA3289160E3C36</t>
+  </si>
+  <si>
+    <t>bg1</t>
+  </si>
+  <si>
+    <t>F97E9CEA977A800D0090542B64D1E8CC8CA8F93693145D2C369D6FB92BA9E4C7</t>
+  </si>
+  <si>
+    <t>bg2</t>
+  </si>
+  <si>
+    <t>28AD42CC94106916D56CDDEF2776C6994F7F21B87018A1509F1452CE9DCA87AB</t>
+  </si>
+  <si>
+    <t>juno1zze6tj5kgdtkjszzg9d20qj8uc59pfwhjvlagpvgkmpcyaux8q4s4dpvq2</t>
+  </si>
+  <si>
+    <t>uni-6</t>
+  </si>
+  <si>
+    <t>AA65AFD710C3A2E356432E8E806F03E6F0369A2B094325B5035AB5FFDE8B3374</t>
+  </si>
+  <si>
+    <t>ibc/9F9E4848EA0E7C2B9C50B61C2AD683146D86936F464AC2D9EE7806460393BA32</t>
+  </si>
+  <si>
+    <t>gon-flixnet-1</t>
+  </si>
+  <si>
+    <t>D0987450A260EB61A73B123966419B2815BCFE67A431CD62EDFD623C84A33DB6</t>
+  </si>
+  <si>
+    <t>39629176E4C09CBCFE00E1C67061C9933D2FBA01A294F9435F255906E8111EE6</t>
   </si>
 </sst>
 </file>
@@ -213,7 +237,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -221,8 +245,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -536,72 +558,72 @@
   </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
+    <sheetView zoomScale="92" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="15.36328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.1796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.453125" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
         <v>19</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -618,13 +640,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -632,7 +654,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -654,13 +676,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -668,7 +690,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -690,13 +712,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -704,7 +726,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -726,13 +748,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -740,7 +762,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -762,13 +784,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -776,7 +798,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -784,17 +806,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -810,13 +830,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -824,7 +844,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -832,17 +852,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -858,13 +876,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -872,7 +890,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -880,17 +898,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -906,13 +922,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -920,7 +936,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -928,17 +944,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -954,13 +968,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -968,7 +982,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -976,17 +990,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1002,13 +1014,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1016,7 +1028,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1024,17 +1036,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1048,14 +1058,16 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="2" width="17.81640625" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1063,12 +1075,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>15</v>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1085,13 +1097,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1099,7 +1111,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1107,17 +1119,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1133,13 +1143,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1147,7 +1157,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1155,17 +1165,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1181,22 +1189,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="12.453125" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1215,22 +1223,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="12.453125" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1249,22 +1257,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="12.453125" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1283,22 +1291,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="12.453125" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1313,17 +1321,19 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="2" width="17.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1334,15 +1344,26 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>15</v>
+    <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1357,16 +1378,18 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="2" width="17.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.453125" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1380,18 +1403,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
+    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1406,16 +1429,18 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="2" width="17.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.453125" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1429,18 +1454,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
+    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1455,16 +1480,18 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="2" width="17.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.453125" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1478,18 +1505,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
+    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1504,17 +1531,19 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="17.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.453125" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1528,18 +1557,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
+    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1556,13 +1585,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -1570,7 +1599,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -1592,13 +1621,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -1606,7 +1635,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>

--- a/bunnygangsta/evidence.xlsx
+++ b/bunnygangsta/evidence.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/778f0630af30ae08/Masaüstü/nodes/cosmos/GOn/bunny/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{66A870FC-4D27-45C0-B446-9FE26039AEEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E21439F6-D245-4686-A807-BC8111FF6C5D}"/>
+  <xr:revisionPtr revIDLastSave="66" documentId="8_{66A870FC-4D27-45C0-B446-9FE26039AEEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC507D8E-8EC0-4F05-B89D-1E41702F995E}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" tabRatio="787" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="787" firstSheet="13" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="86">
   <si>
     <t>TxHash</t>
   </si>
@@ -58,27 +58,12 @@
     <t>ChainID</t>
   </si>
   <si>
-    <t>tx hash on that chain</t>
-  </si>
-  <si>
-    <t>chain id</t>
-  </si>
-  <si>
-    <t>tx hash on that chain	chain id</t>
-  </si>
-  <si>
     <t>ClassID</t>
   </si>
   <si>
     <t>NFTID</t>
   </si>
   <si>
-    <t>ibc class on chain</t>
-  </si>
-  <si>
-    <t>nft id</t>
-  </si>
-  <si>
     <t>TeamName</t>
   </si>
   <si>
@@ -164,13 +149,166 @@
   </si>
   <si>
     <t>39629176E4C09CBCFE00E1C67061C9933D2FBA01A294F9435F255906E8111EE6</t>
+  </si>
+  <si>
+    <t>ibc/24A60F8F58475DB7966A1E9973339171DD5D254508F3C7A64C61020A6589404A</t>
+  </si>
+  <si>
+    <t>bg3</t>
+  </si>
+  <si>
+    <t>ibc/FD73623596936DE77DBC00B43DA173B0FF9BDCE58B6A3BAC4F794287BE1F4C14</t>
+  </si>
+  <si>
+    <t>bg4</t>
+  </si>
+  <si>
+    <t>ibc/23691074895B1C6B0DE2DF9414B29DB83FD276BC7FCD52C82391CFB29D06BA3A</t>
+  </si>
+  <si>
+    <t>bg5</t>
+  </si>
+  <si>
+    <t>bg6</t>
+  </si>
+  <si>
+    <t>ibc/EF037E77C8DCC3BDBF6F3A8C21A8C6642C1010E15C8139DDB996B40AA273A896</t>
+  </si>
+  <si>
+    <t>ibc/B9B7781B0ED06E62E1C932C3EA77CB93D94995B719DAFEBD57683397F667CF02</t>
+  </si>
+  <si>
+    <t>bg7</t>
+  </si>
+  <si>
+    <t>ibc/19B0EAC8037CA4E155F0E9064C1B1574EC757D5CE5AE67E4E84EAB407773DB98</t>
+  </si>
+  <si>
+    <t>bg8</t>
+  </si>
+  <si>
+    <t>gon-irishub-1</t>
+  </si>
+  <si>
+    <t>C02CB8D6AC425C879D70BDD334DCDF27BD37787F5A506B4FB39F8F4A2907DFCC</t>
+  </si>
+  <si>
+    <t>D46A62E3586A016BE71927F49B021E54AFCE6452F01833400D59017F69C66081</t>
+  </si>
+  <si>
+    <t>elgafar-1</t>
+  </si>
+  <si>
+    <t>C564D2DCDA649C592CFA017FBCE4CD7957A876DF56DD8B40FDADA95B62A85101</t>
+  </si>
+  <si>
+    <t>uptick_7000-2</t>
+  </si>
+  <si>
+    <t>04BAE2148FB77F8037EC2A8A5AF6EE42A68BF9DDABF309DC1B53C6F71F8F856A</t>
+  </si>
+  <si>
+    <t>9B2040CA3A11ED97C173DF015503368DA01A4C53104BCD97C5A7B6445D2E0714</t>
+  </si>
+  <si>
+    <t>2F3CF72CF2AA39D1634DF7C8FB70CBAE37905850DD110A24BD26756B8E6FC6A5</t>
+  </si>
+  <si>
+    <t>96C1C3F3B890BFB5A0242D275AC15108CD99041510104FBA6920D4882A19653E</t>
+  </si>
+  <si>
+    <t>ACCE9CF43043A76035AF72A375763DC257BD524E17854C03B7A93C8A56852F01</t>
+  </si>
+  <si>
+    <t>F8C84E109482F5B879DAF9B8A33DF09790B1CCEE9A4DB316CF08CE89366F2C77</t>
+  </si>
+  <si>
+    <t>330DC23405018E3E9D47D5B10B142C466E78C58A0474EC9A0F68A79D4738AF0D</t>
+  </si>
+  <si>
+    <t>D816C49828B7B7D7AA2274AB126CA275DFC8589C751D053C12BEF9FB59A8FFCE</t>
+  </si>
+  <si>
+    <t>FAE09BC916641F0F731322A94B1F0188A65D744F86DB94F016307D3E8CC06813</t>
+  </si>
+  <si>
+    <t>335448DD0BF431AECA841E78F3643FA730D80680D948BCE49D1A652F26BA627B</t>
+  </si>
+  <si>
+    <t>F70AD68024AFE4F34D642078200DCB31D4F24BE81FBDDE9163EE13F35BB57719</t>
+  </si>
+  <si>
+    <t>3E57F4F4C1BE99B5CF4EB3866B2E64E313FACBCA989D5B0DBCDA539B7D311E24</t>
+  </si>
+  <si>
+    <t>iris q nft owner $IRISADDRESS</t>
+  </si>
+  <si>
+    <t>72A1F282CB14331DAF25234D79870CCA3929D99CA707A6D546FD5C03C8882628</t>
+  </si>
+  <si>
+    <t>A1E46DE723841E64AD5E1A620D7FD7A131DB10EFA62669D5671D2D004C059B6C</t>
+  </si>
+  <si>
+    <t>A6F644EFEE17F22309F8AE01BEA06ABFF3862F71B60AA45CDDD60EE52C36148F</t>
+  </si>
+  <si>
+    <t>8F5BA918594887FAF5668862943C08FBB25E62E50DB9C57625D117CECF21D712</t>
+  </si>
+  <si>
+    <t>CFC0FB634797EEAAC232F9D2E5A144996CCD7B4657462DC2F66CFECEB6AD0EF6</t>
+  </si>
+  <si>
+    <t>7703969F1BC6DD1DD66065CC1C09211AD7AB61F36FF377A791A1B827BE7F393D</t>
+  </si>
+  <si>
+    <t>390369E943DB9DEB524D265D46324AF19B0E7CB808EB16CF825BAF99F181037A</t>
+  </si>
+  <si>
+    <t>06EAF66708613BFB97FBD7554AAFEFA806075CDDFD2BB61D5DB78822E047FBCE</t>
+  </si>
+  <si>
+    <t>B204D7634A4657C45E84582F4408361B47FB1076BCCF330B20BDA70CA183B5A7</t>
+  </si>
+  <si>
+    <t>6AB58CFA865DBB48FA538972A6FB0EB0A39D917BAA7AEA1B17D9D4D48D8EFEC6</t>
+  </si>
+  <si>
+    <t>06F920A4C9755745B65679E2938EC934F2A9B1DCB4E2A531A9576519EA2EEE52</t>
+  </si>
+  <si>
+    <t>AB419C767D2F55E0EA86211A92B5441F60A4ED022929F81C38B984BCDB232E48</t>
+  </si>
+  <si>
+    <t>20ED0143B6C63A21E6E126522372A75CEE84BF75C9BF6E3709DF4D4497D496C4</t>
+  </si>
+  <si>
+    <t>855369A1231AC05DF964C4CCE6C9FA180957F126100985E9E0BF7023CB7CCED4</t>
+  </si>
+  <si>
+    <t>430621B375921832F94EB326B80AAE140A1F7745709D0ED24492359A59F06458</t>
+  </si>
+  <si>
+    <t>C49B41C3052BEE5289AC656091D3E55049CEB5392D1700F1DA85BE6AD4180B0E</t>
+  </si>
+  <si>
+    <t>5375B34FE130E1CF068BF117059EAF879133E9EEB820C6E7F9F3F5603B3AF0C4</t>
+  </si>
+  <si>
+    <t>7ECB3D376BCC7BFA9BD23C72D938F0E0CCC733663473D85A3A91FF5B14225E2D</t>
+  </si>
+  <si>
+    <t>EE8ACABBC1F3515C92566C09FFBBCF56B318413C63042D2BEC0FE1F010383F61</t>
+  </si>
+  <si>
+    <t>67F3073797A191EFD95C967C304ABA8EAAA92DDE12A48613525185A6C2F93300</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,6 +321,13 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="162"/>
     </font>
   </fonts>
   <fills count="4">
@@ -237,7 +382,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -251,6 +396,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -266,6 +415,14 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -559,7 +716,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView zoomScale="92" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -576,54 +733,54 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="G2" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -638,7 +795,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -648,18 +807,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -674,7 +833,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -684,18 +845,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -710,7 +871,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -720,18 +883,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -746,7 +909,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -756,18 +921,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -780,9 +945,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -799,25 +966,40 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
+      <c r="A2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>49</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+        <v>51</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -826,9 +1008,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -846,20 +1030,34 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>54</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>55</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>56</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -872,9 +1070,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -891,36 +1091,114 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
+      <c r="A2" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>63</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+        <v>64</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -938,35 +1216,51 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>67</v>
+      </c>
+      <c r="B3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+        <v>68</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -984,35 +1278,166 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>75</v>
+      </c>
+      <c r="B3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+        <v>76</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1030,149 +1455,50 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>81</v>
+      </c>
+      <c r="B3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>82</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1338,32 +1664,32 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1394,10 +1720,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1405,16 +1731,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1445,10 +1771,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1456,16 +1782,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1496,10 +1822,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1507,16 +1833,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1531,8 +1857,8 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1548,10 +1874,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1559,31 +1885,71 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1593,54 +1959,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/bunnygangsta/evidence.xlsx
+++ b/bunnygangsta/evidence.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/778f0630af30ae08/Masaüstü/nodes/cosmos/GOn/bunny/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="66" documentId="8_{66A870FC-4D27-45C0-B446-9FE26039AEEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC507D8E-8EC0-4F05-B89D-1E41702F995E}"/>
+  <xr:revisionPtr revIDLastSave="67" documentId="8_{66A870FC-4D27-45C0-B446-9FE26039AEEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{658A5FBA-45DE-431A-9562-8CEA3DDEBC52}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="787" firstSheet="13" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2595" yWindow="2595" windowWidth="21600" windowHeight="11295" tabRatio="787" firstSheet="1" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -241,9 +241,6 @@
     <t>3E57F4F4C1BE99B5CF4EB3866B2E64E313FACBCA989D5B0DBCDA539B7D311E24</t>
   </si>
   <si>
-    <t>iris q nft owner $IRISADDRESS</t>
-  </si>
-  <si>
     <t>72A1F282CB14331DAF25234D79870CCA3929D99CA707A6D546FD5C03C8882628</t>
   </si>
   <si>
@@ -302,6 +299,9 @@
   </si>
   <si>
     <t>67F3073797A191EFD95C967C304ABA8EAAA92DDE12A48613525185A6C2F93300</t>
+  </si>
+  <si>
+    <t>38C225CDFCDA72B657BB2175D8DA0E041947C4AEE110996558B99DFF87084746</t>
   </si>
 </sst>
 </file>
@@ -1134,7 +1134,7 @@
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -1178,7 +1178,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -1216,7 +1216,7 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>47</v>
@@ -1224,7 +1224,7 @@
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B3" t="s">
         <v>50</v>
@@ -1232,10 +1232,72 @@
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1243,23 +1305,60 @@
         <v>69</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1285,217 +1384,118 @@
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>72</v>
+      <c r="A3" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>76</v>
+      </c>
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>82</v>
       </c>
       <c r="B5" t="s">
         <v>32</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B5" t="s">
-        <v>52</v>
-      </c>
-    </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
         <v>84</v>
-      </c>
-      <c r="B6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>85</v>
       </c>
       <c r="B7" t="s">
         <v>52</v>

--- a/bunnygangsta/evidence.xlsx
+++ b/bunnygangsta/evidence.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/778f0630af30ae08/Masaüstü/nodes/cosmos/GOn/bunny/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="67" documentId="8_{66A870FC-4D27-45C0-B446-9FE26039AEEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{658A5FBA-45DE-431A-9562-8CEA3DDEBC52}"/>
+  <xr:revisionPtr revIDLastSave="68" documentId="8_{66A870FC-4D27-45C0-B446-9FE26039AEEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{822EEC35-2585-427F-BDE0-7186E22092DC}"/>
   <bookViews>
-    <workbookView xWindow="2595" yWindow="2595" windowWidth="21600" windowHeight="11295" tabRatio="787" firstSheet="1" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6825" yWindow="2835" windowWidth="21600" windowHeight="11295" tabRatio="787" firstSheet="6" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -38,23 +38,18 @@
     <sheet name="B2" sheetId="23" r:id="rId23"/>
     <sheet name="B5" sheetId="24" r:id="rId24"/>
     <sheet name="B6" sheetId="25" r:id="rId25"/>
+    <sheet name="B7" sheetId="26" r:id="rId26"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="94">
   <si>
     <t>TxHash</t>
   </si>
   <si>
-    <t>The first Interchain NFT-Transfer TxHash</t>
-  </si>
-  <si>
-    <t>The Internal Transfer TxHash on IRISnet</t>
-  </si>
-  <si>
     <t>ChainID</t>
   </si>
   <si>
@@ -302,6 +297,36 @@
   </si>
   <si>
     <t>38C225CDFCDA72B657BB2175D8DA0E041947C4AEE110996558B99DFF87084746</t>
+  </si>
+  <si>
+    <t>36536187BC5A1389C37DDA561D02C9E4BEDFD1B1F4ABA0DFE6DDA332D548F5A4</t>
+  </si>
+  <si>
+    <t>AEA8E7A745CCE7CE81FCFF9A3942A9BAC56784BFC7ED778E42312A7329EE5B3B</t>
+  </si>
+  <si>
+    <t>A18DDBCF44EE13C14739CFEF25F1AD97B6B616195FCC2D4723F26E75FEDC4A29</t>
+  </si>
+  <si>
+    <t>DDFC9B1B2A10AAD3210ED38AB05A0A59B223D65E6944DFC948811F4E4D113D3D</t>
+  </si>
+  <si>
+    <t>3795F0ED81A40EDF6F09DEDFC556E891254B0DF61C65C36DB572C355B5F2EBDB</t>
+  </si>
+  <si>
+    <t>E0FC2B72FE2353737A6250214950B7DA5EAC1D59FE2DF67409872D271B053601</t>
+  </si>
+  <si>
+    <t>FC510C02086310DB2E695BDA14917C54E16954EE555FA4EFF71E70DFB40E0274</t>
+  </si>
+  <si>
+    <t>7E869EB39E0846FCD149A4552C3A921BB140DC2507EF3A8F1A581E75D9AA2602</t>
+  </si>
+  <si>
+    <t>58562A328C44D6D3BF986574F9CE95B3870E7ECAFF631DDE61413963B8B8D876</t>
+  </si>
+  <si>
+    <t>BDF4224AE24F7F14739BE473EF2C7390A278ECC4CB2F41D000E2533719BC3683</t>
   </si>
 </sst>
 </file>
@@ -733,54 +758,54 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="G2" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -807,18 +832,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -845,18 +870,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -883,10 +908,48 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -902,15 +965,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -921,34 +984,59 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -962,20 +1050,20 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>48</v>
+      <c r="A2" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>50</v>
@@ -983,15 +1071,15 @@
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>50</v>
@@ -999,19 +1087,18 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1025,55 +1112,117 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>54</v>
+      <c r="A2" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>52</v>
+        <v>61</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>32</v>
+        <v>62</v>
+      </c>
+      <c r="B4" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+      <c r="A5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1087,55 +1236,55 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>47</v>
+      <c r="A2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>29</v>
+      <c r="A3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>52</v>
+      <c r="A4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+      <c r="A5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1149,55 +1298,170 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B5"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1211,20 +1475,20 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s">
         <v>50</v>
@@ -1232,192 +1496,31 @@
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B5" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B7" t="s">
         <v>50</v>
@@ -1428,84 +1531,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>84</v>
-      </c>
-      <c r="B7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <sheetPr>
@@ -1513,7 +1538,9 @@
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1527,12 +1554,12 @@
     </row>
     <row r="2" spans="1:1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1547,7 +1574,9 @@
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1561,12 +1590,12 @@
     </row>
     <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1581,7 +1610,9 @@
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1595,12 +1626,12 @@
     </row>
     <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1615,7 +1646,9 @@
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1629,12 +1662,48 @@
     </row>
     <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
+      <c r="A3" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F19DE33-A943-4C58-B1BE-B7B7A05E0B5D}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1664,32 +1733,32 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1720,27 +1789,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1771,27 +1840,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1822,27 +1891,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1874,27 +1943,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1921,10 +1990,48 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1938,42 +2045,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>